--- a/output/1Y_P75_KFSDIV.xlsx
+++ b/output/1Y_P75_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.2345</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.1636</v>
       </c>
       <c r="C3" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D3" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E3" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="F3" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="H3" s="1">
-        <v>9942.0491</v>
+        <v>9902.3575</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9942.0491</v>
+        <v>9902.3575</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0058</v>
+        <v>-0.0098</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>11.8145</v>
       </c>
       <c r="C4" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D4" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E4" s="1">
-        <v>1639.4858</v>
+        <v>1636.2064</v>
       </c>
       <c r="F4" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="H4" s="1">
-        <v>19369.7046</v>
+        <v>19292.3458</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19369.7046</v>
+        <v>19292.3458</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.1989</v>
+        <v>12.2234</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0287</v>
+        <v>-0.0307</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>11.2352</v>
       </c>
       <c r="C5" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D5" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E5" s="1">
-        <v>2485.9033</v>
+        <v>2480.9294</v>
       </c>
       <c r="F5" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="H5" s="1">
-        <v>27929.6209</v>
+        <v>27817.917</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27929.6209</v>
+        <v>27817.917</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.068</v>
+        <v>12.0922</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>442.6612</v>
+        <v>441.7757</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9557.3388</v>
+        <v>-9558.2243</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.049</v>
+        <v>-0.0503</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.8241</v>
       </c>
       <c r="C6" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D6" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E6" s="1">
-        <v>3375.9552</v>
+        <v>3369.2103</v>
       </c>
       <c r="F6" s="1">
-        <v>928.9763</v>
+        <v>927.1074</v>
       </c>
       <c r="H6" s="1">
-        <v>36541.6767</v>
+        <v>36395.5574</v>
       </c>
       <c r="I6" s="1">
-        <v>442.6612</v>
+        <v>441.7757</v>
       </c>
       <c r="J6" s="1">
-        <v>36984.3378</v>
+        <v>36837.3331</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.8485</v>
+        <v>11.8722</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10055.3326</v>
+        <v>-10055.222</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0249</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>11.2543</v>
       </c>
       <c r="C7" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D7" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E7" s="1">
-        <v>4304.9315</v>
+        <v>4296.3178</v>
       </c>
       <c r="F7" s="1">
-        <v>893.4657999999999</v>
+        <v>891.6654</v>
       </c>
       <c r="H7" s="1">
-        <v>48448.9909</v>
+        <v>48255.3818</v>
       </c>
       <c r="I7" s="1">
-        <v>387.3285</v>
+        <v>386.5538</v>
       </c>
       <c r="J7" s="1">
-        <v>48836.3194</v>
+        <v>48641.9355</v>
       </c>
       <c r="K7" s="1">
-        <v>50055.3326</v>
+        <v>50055.222</v>
       </c>
       <c r="L7" s="1">
-        <v>11.6274</v>
+        <v>11.6507</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10055.3326</v>
+        <v>-10055.222</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0394</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>10.5675</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E8" s="1">
-        <v>5198.3974</v>
+        <v>5187.9832</v>
       </c>
       <c r="F8" s="1">
-        <v>951.5247000000001</v>
+        <v>949.6182</v>
       </c>
       <c r="H8" s="1">
-        <v>54934.0642</v>
+        <v>54714.5459</v>
       </c>
       <c r="I8" s="1">
-        <v>331.9959</v>
+        <v>331.3318</v>
       </c>
       <c r="J8" s="1">
-        <v>55266.0601</v>
+        <v>55045.8777</v>
       </c>
       <c r="K8" s="1">
-        <v>60110.6653</v>
+        <v>60110.4439</v>
       </c>
       <c r="L8" s="1">
-        <v>11.5633</v>
+        <v>11.5865</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1162.3315</v>
+        <v>1160.0058</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8893.001099999999</v>
+        <v>-8895.216200000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0607</v>
+        <v>-0.0613</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E9" s="1">
-        <v>6149.9221</v>
+        <v>6137.6014</v>
       </c>
       <c r="F9" s="1">
-        <v>1032.1861</v>
+        <v>1030.0614</v>
       </c>
       <c r="H9" s="1">
-        <v>61296.2735</v>
+        <v>61051.3345</v>
       </c>
       <c r="I9" s="1">
-        <v>1438.9947</v>
+        <v>1436.1156</v>
       </c>
       <c r="J9" s="1">
-        <v>62735.2682</v>
+        <v>62487.4502</v>
       </c>
       <c r="K9" s="1">
-        <v>70165.9979</v>
+        <v>70165.66590000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.4092</v>
+        <v>11.4321</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10287.7989</v>
+        <v>-10287.2231</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0388</v>
+        <v>-0.0393</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.0064</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E10" s="1">
-        <v>7182.1082</v>
+        <v>7167.6628</v>
       </c>
       <c r="F10" s="1">
-        <v>1028.1219</v>
+        <v>1026.0034</v>
       </c>
       <c r="H10" s="1">
-        <v>71867.0475</v>
+        <v>71579.1474</v>
       </c>
       <c r="I10" s="1">
-        <v>1151.1958</v>
+        <v>1148.8925</v>
       </c>
       <c r="J10" s="1">
-        <v>73018.2433</v>
+        <v>72728.0399</v>
       </c>
       <c r="K10" s="1">
-        <v>80453.7969</v>
+        <v>80452.889</v>
       </c>
       <c r="L10" s="1">
-        <v>11.202</v>
+        <v>11.2244</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10287.7989</v>
+        <v>-10287.2231</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0039</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>10.0129</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E11" s="1">
-        <v>8210.230100000001</v>
+        <v>8193.6662</v>
       </c>
       <c r="F11" s="1">
-        <v>1027.4545</v>
+        <v>1025.3387</v>
       </c>
       <c r="H11" s="1">
-        <v>82208.2129</v>
+        <v>81878.4866</v>
       </c>
       <c r="I11" s="1">
-        <v>863.3968</v>
+        <v>861.6694</v>
       </c>
       <c r="J11" s="1">
-        <v>83071.60980000001</v>
+        <v>82740.156</v>
       </c>
       <c r="K11" s="1">
-        <v>90741.5958</v>
+        <v>90740.1121</v>
       </c>
       <c r="L11" s="1">
-        <v>11.0523</v>
+        <v>11.0744</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1939.1692</v>
+        <v>1935.2689</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8348.6297</v>
+        <v>-8351.9542</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.4583</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E12" s="1">
-        <v>9237.684600000001</v>
+        <v>9219.0049</v>
       </c>
       <c r="F12" s="1">
-        <v>1076.4066</v>
+        <v>1074.0085</v>
       </c>
       <c r="H12" s="1">
-        <v>96610.47659999999</v>
+        <v>96222.44130000001</v>
       </c>
       <c r="I12" s="1">
-        <v>2514.7671</v>
+        <v>2509.7152</v>
       </c>
       <c r="J12" s="1">
-        <v>99125.24370000001</v>
+        <v>98732.1565</v>
       </c>
       <c r="K12" s="1">
-        <v>101029.3948</v>
+        <v>101027.3353</v>
       </c>
       <c r="L12" s="1">
-        <v>10.9367</v>
+        <v>10.9586</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11257.3836</v>
+        <v>-11254.8576</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.065</v>
+        <v>0.0646</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.3341</v>
       </c>
       <c r="C13" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D13" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E13" s="1">
-        <v>10314.0912</v>
+        <v>10293.0134</v>
       </c>
       <c r="F13" s="1">
-        <v>1089.3434</v>
+        <v>1086.9218</v>
       </c>
       <c r="H13" s="1">
-        <v>106586.85</v>
+        <v>106155.9643</v>
       </c>
       <c r="I13" s="1">
-        <v>1257.3836</v>
+        <v>1254.8576</v>
       </c>
       <c r="J13" s="1">
-        <v>107844.2336</v>
+        <v>107410.8219</v>
       </c>
       <c r="K13" s="1">
-        <v>112286.7783</v>
+        <v>112282.1929</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8867</v>
+        <v>10.9086</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11257.3836</v>
+        <v>-11254.8576</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0117</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>11403.4346</v>
+        <v>11379.9352</v>
       </c>
       <c r="F14" s="1">
-        <v>-11403.4346</v>
+        <v>-11379.9352</v>
       </c>
       <c r="H14" s="1">
-        <v>112718.3897</v>
+        <v>112260.7844</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>112718.3897</v>
+        <v>112260.7844</v>
       </c>
       <c r="K14" s="1">
-        <v>123544.1619</v>
+        <v>123537.0505</v>
       </c>
       <c r="L14" s="1">
-        <v>10.8339</v>
+        <v>10.8557</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4641.341</v>
+        <v>4631.856</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117359.7307</v>
+        <v>116892.6404</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0435</v>
+        <v>-0.0439</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.2345</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.1636</v>
       </c>
       <c r="C3" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D3" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E3" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="F3" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9942.0491</v>
+        <v>9902.3575</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9942.0491</v>
+        <v>9902.3575</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0058</v>
+        <v>-0.0098</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>11.8145</v>
       </c>
       <c r="C4" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D4" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E4" s="1">
-        <v>1639.4858</v>
+        <v>1636.2064</v>
       </c>
       <c r="F4" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19369.7046</v>
+        <v>19292.3458</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19369.7046</v>
+        <v>19292.3458</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.1989</v>
+        <v>12.2234</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0287</v>
+        <v>-0.0307</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>11.2352</v>
       </c>
       <c r="C5" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D5" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E5" s="1">
-        <v>2485.9033</v>
+        <v>2480.9294</v>
       </c>
       <c r="F5" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>27929.6209</v>
+        <v>27817.917</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27929.6209</v>
+        <v>27817.917</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.068</v>
+        <v>12.0922</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>442.6612</v>
+        <v>441.7757</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9557.3388</v>
+        <v>-9558.2243</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.049</v>
+        <v>-0.0503</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.8241</v>
       </c>
       <c r="C6" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D6" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E6" s="1">
-        <v>3375.9552</v>
+        <v>3369.2103</v>
       </c>
       <c r="F6" s="1">
-        <v>964.7602000000001</v>
+        <v>962.7483</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>36541.6767</v>
+        <v>36395.5574</v>
       </c>
       <c r="I6" s="1">
-        <v>442.6612</v>
+        <v>441.7757</v>
       </c>
       <c r="J6" s="1">
-        <v>36984.3378</v>
+        <v>36837.3331</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.8485</v>
+        <v>11.8722</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10442.6612</v>
+        <v>-10441.7757</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0249</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>11.2543</v>
       </c>
       <c r="C7" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D7" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E7" s="1">
-        <v>4340.7154</v>
+        <v>4331.9586</v>
       </c>
       <c r="F7" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48851.7136</v>
+        <v>48655.6929</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>48851.7136</v>
+        <v>48655.6929</v>
       </c>
       <c r="K7" s="1">
-        <v>50442.6612</v>
+        <v>50441.7757</v>
       </c>
       <c r="L7" s="1">
-        <v>11.6208</v>
+        <v>11.6441</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0397</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>10.5675</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E8" s="1">
-        <v>5229.2647</v>
+        <v>5218.7272</v>
       </c>
       <c r="F8" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>55260.2546</v>
+        <v>55038.784</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55260.2546</v>
+        <v>55038.784</v>
       </c>
       <c r="K8" s="1">
-        <v>60442.6612</v>
+        <v>60441.7757</v>
       </c>
       <c r="L8" s="1">
-        <v>11.5585</v>
+        <v>11.5817</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1171.9932</v>
+        <v>1169.6288</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8828.006799999999</v>
+        <v>-8830.3712</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.061</v>
+        <v>-0.0617</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E9" s="1">
-        <v>6175.5533</v>
+        <v>6163.1301</v>
       </c>
       <c r="F9" s="1">
-        <v>1120.8983</v>
+        <v>1118.4168</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>61551.7402</v>
+        <v>61305.2719</v>
       </c>
       <c r="I9" s="1">
-        <v>1171.9932</v>
+        <v>1169.6288</v>
       </c>
       <c r="J9" s="1">
-        <v>62723.7334</v>
+        <v>62474.9007</v>
       </c>
       <c r="K9" s="1">
-        <v>70442.6612</v>
+        <v>70441.7757</v>
       </c>
       <c r="L9" s="1">
-        <v>11.4067</v>
+        <v>11.4295</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11171.9932</v>
+        <v>-11169.6288</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0389</v>
+        <v>-0.0394</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.0064</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E10" s="1">
-        <v>7296.4516</v>
+        <v>7281.547</v>
       </c>
       <c r="F10" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>73011.2136</v>
+        <v>72716.44070000001</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>73011.2136</v>
+        <v>72716.44070000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81614.65429999999</v>
+        <v>81611.40459999999</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1855</v>
+        <v>11.208</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.004</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>10.0129</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E11" s="1">
-        <v>8295.812</v>
+        <v>8278.904</v>
       </c>
       <c r="F11" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>83065.1363</v>
+        <v>82730.2595</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>83065.1363</v>
+        <v>82730.2595</v>
       </c>
       <c r="K11" s="1">
-        <v>91614.65429999999</v>
+        <v>91611.40459999999</v>
       </c>
       <c r="L11" s="1">
-        <v>11.0435</v>
+        <v>11.0656</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1970.0419</v>
+        <v>1966.0177</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8029.9581</v>
+        <v>-8033.9823</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.4583</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E12" s="1">
-        <v>9294.5237</v>
+        <v>9275.614799999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1144.5495</v>
+        <v>1141.8719</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97204.9172</v>
+        <v>96813.30220000001</v>
       </c>
       <c r="I12" s="1">
-        <v>1970.0419</v>
+        <v>1966.0177</v>
       </c>
       <c r="J12" s="1">
-        <v>99174.95909999999</v>
+        <v>98779.3199</v>
       </c>
       <c r="K12" s="1">
-        <v>101614.6543</v>
+        <v>101611.4046</v>
       </c>
       <c r="L12" s="1">
-        <v>10.9327</v>
+        <v>10.9547</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11970.0419</v>
+        <v>-11966.0177</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.06569999999999999</v>
+        <v>0.06519999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.3341</v>
       </c>
       <c r="C13" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D13" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E13" s="1">
-        <v>10439.0732</v>
+        <v>10417.4867</v>
       </c>
       <c r="F13" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>107878.4262</v>
+        <v>107439.7071</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>107878.4262</v>
+        <v>107439.7071</v>
       </c>
       <c r="K13" s="1">
-        <v>113584.6963</v>
+        <v>113577.4222</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8807</v>
+        <v>10.9026</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0119</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>11406.7433</v>
+        <v>11383.2224</v>
       </c>
       <c r="F14" s="1">
-        <v>-11406.7433</v>
+        <v>-11383.2224</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112751.0951</v>
+        <v>112293.2121</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>112751.0951</v>
+        <v>112293.2121</v>
       </c>
       <c r="K14" s="1">
-        <v>123584.6963</v>
+        <v>123577.4222</v>
       </c>
       <c r="L14" s="1">
-        <v>10.8344</v>
+        <v>10.8561</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4697.5829</v>
+        <v>4687.869</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117448.678</v>
+        <v>116981.0811</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0435</v>
+        <v>-0.0438</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>12.2345</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.1636</v>
       </c>
       <c r="C3" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D3" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E3" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="F3" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9942.0491</v>
+        <v>9902.3575</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9942.0491</v>
+        <v>9902.3575</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0058</v>
+        <v>-0.0098</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>11.8145</v>
       </c>
       <c r="C4" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D4" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E4" s="1">
-        <v>1639.4858</v>
+        <v>1636.2064</v>
       </c>
       <c r="F4" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19369.7046</v>
+        <v>19292.3458</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19369.7046</v>
+        <v>19292.3458</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.1989</v>
+        <v>12.2234</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0287</v>
+        <v>-0.0307</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>11.2352</v>
       </c>
       <c r="C5" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D5" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E5" s="1">
-        <v>2485.9033</v>
+        <v>2480.9294</v>
       </c>
       <c r="F5" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>27929.6209</v>
+        <v>27817.917</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27929.6209</v>
+        <v>27817.917</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.068</v>
+        <v>12.0922</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>442.6612</v>
+        <v>441.7757</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9557.3388</v>
+        <v>-9558.2243</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.049</v>
+        <v>-0.0503</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.8241</v>
       </c>
       <c r="C6" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D6" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E6" s="1">
-        <v>3375.9552</v>
+        <v>3369.2103</v>
       </c>
       <c r="F6" s="1">
-        <v>964.7602000000001</v>
+        <v>962.7483</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>36541.6767</v>
+        <v>36395.5574</v>
       </c>
       <c r="I6" s="1">
-        <v>442.6612</v>
+        <v>441.7757</v>
       </c>
       <c r="J6" s="1">
-        <v>36984.3378</v>
+        <v>36837.3331</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.8485</v>
+        <v>11.8722</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10442.6612</v>
+        <v>-10441.7757</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0249</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>11.2543</v>
       </c>
       <c r="C7" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D7" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E7" s="1">
-        <v>4340.7154</v>
+        <v>4331.9586</v>
       </c>
       <c r="F7" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>48851.7136</v>
+        <v>48655.6929</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>48851.7136</v>
+        <v>48655.6929</v>
       </c>
       <c r="K7" s="1">
-        <v>50442.6612</v>
+        <v>50441.7757</v>
       </c>
       <c r="L7" s="1">
-        <v>11.6208</v>
+        <v>11.6441</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0397</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>10.5675</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E8" s="1">
-        <v>5229.2647</v>
+        <v>5218.7272</v>
       </c>
       <c r="F8" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>55260.2546</v>
+        <v>55038.784</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55260.2546</v>
+        <v>55038.784</v>
       </c>
       <c r="K8" s="1">
-        <v>60442.6612</v>
+        <v>60441.7757</v>
       </c>
       <c r="L8" s="1">
-        <v>11.5585</v>
+        <v>11.5817</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1171.9932</v>
+        <v>1169.6288</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8828.006799999999</v>
+        <v>-8830.3712</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.061</v>
+        <v>-0.0617</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E9" s="1">
-        <v>6175.5533</v>
+        <v>6163.1301</v>
       </c>
       <c r="F9" s="1">
-        <v>1120.8983</v>
+        <v>1118.4168</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>61551.7402</v>
+        <v>61305.2719</v>
       </c>
       <c r="I9" s="1">
-        <v>1171.9932</v>
+        <v>1169.6288</v>
       </c>
       <c r="J9" s="1">
-        <v>62723.7334</v>
+        <v>62474.9007</v>
       </c>
       <c r="K9" s="1">
-        <v>70442.6612</v>
+        <v>70441.7757</v>
       </c>
       <c r="L9" s="1">
-        <v>11.4067</v>
+        <v>11.4295</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11171.9932</v>
+        <v>-11169.6288</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0389</v>
+        <v>-0.0394</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.0064</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E10" s="1">
-        <v>7296.4516</v>
+        <v>7281.547</v>
       </c>
       <c r="F10" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>73011.2136</v>
+        <v>72716.44070000001</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>73011.2136</v>
+        <v>72716.44070000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81614.65429999999</v>
+        <v>81611.40459999999</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1855</v>
+        <v>11.208</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.004</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>10.0129</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E11" s="1">
-        <v>8295.812</v>
+        <v>8278.904</v>
       </c>
       <c r="F11" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>83065.1363</v>
+        <v>82730.2595</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>83065.1363</v>
+        <v>82730.2595</v>
       </c>
       <c r="K11" s="1">
-        <v>91614.65429999999</v>
+        <v>91611.40459999999</v>
       </c>
       <c r="L11" s="1">
-        <v>11.0435</v>
+        <v>11.0656</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1970.0419</v>
+        <v>1966.0177</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8029.9581</v>
+        <v>-8033.9823</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.4583</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E12" s="1">
-        <v>9294.5237</v>
+        <v>9275.614799999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1144.5495</v>
+        <v>1141.8719</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>97204.9172</v>
+        <v>96813.30220000001</v>
       </c>
       <c r="I12" s="1">
-        <v>1970.0419</v>
+        <v>1966.0177</v>
       </c>
       <c r="J12" s="1">
-        <v>99174.95909999999</v>
+        <v>98779.3199</v>
       </c>
       <c r="K12" s="1">
-        <v>101614.6543</v>
+        <v>101611.4046</v>
       </c>
       <c r="L12" s="1">
-        <v>10.9327</v>
+        <v>10.9547</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11970.0419</v>
+        <v>-11966.0177</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.06569999999999999</v>
+        <v>0.06519999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.3341</v>
       </c>
       <c r="C13" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D13" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E13" s="1">
-        <v>10439.0732</v>
+        <v>10417.4867</v>
       </c>
       <c r="F13" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>107878.4262</v>
+        <v>107439.7071</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>107878.4262</v>
+        <v>107439.7071</v>
       </c>
       <c r="K13" s="1">
-        <v>113584.6963</v>
+        <v>113577.4222</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8807</v>
+        <v>10.9026</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0119</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>11406.7433</v>
+        <v>11383.2224</v>
       </c>
       <c r="F14" s="1">
-        <v>-11406.7433</v>
+        <v>-11383.2224</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112751.0951</v>
+        <v>112293.2121</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>112751.0951</v>
+        <v>112293.2121</v>
       </c>
       <c r="K14" s="1">
-        <v>123584.6963</v>
+        <v>123577.4222</v>
       </c>
       <c r="L14" s="1">
-        <v>10.8344</v>
+        <v>10.8561</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4697.5829</v>
+        <v>4687.869</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117448.678</v>
+        <v>116981.0811</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0435</v>
+        <v>-0.0438</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>12.2345</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.1636</v>
       </c>
       <c r="C3" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D3" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E3" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="F3" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9942.0491</v>
+        <v>9902.3575</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9942.0491</v>
+        <v>9902.3575</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0058</v>
+        <v>-0.0098</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>11.8145</v>
       </c>
       <c r="C4" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D4" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E4" s="1">
-        <v>1639.4858</v>
+        <v>1636.2064</v>
       </c>
       <c r="F4" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19369.7046</v>
+        <v>19292.3458</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19369.7046</v>
+        <v>19292.3458</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.1989</v>
+        <v>12.2234</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0287</v>
+        <v>-0.0307</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>11.2352</v>
       </c>
       <c r="C5" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D5" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E5" s="1">
-        <v>2485.9033</v>
+        <v>2480.9294</v>
       </c>
       <c r="F5" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>27929.6209</v>
+        <v>27817.917</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27929.6209</v>
+        <v>27817.917</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.068</v>
+        <v>12.0922</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>442.6612</v>
+        <v>441.7757</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9557.3388</v>
+        <v>-9558.2243</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.049</v>
+        <v>-0.0503</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.8241</v>
       </c>
       <c r="C6" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D6" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E6" s="1">
-        <v>3375.9552</v>
+        <v>3369.2103</v>
       </c>
       <c r="F6" s="1">
-        <v>964.7602000000001</v>
+        <v>962.7483</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>36541.6767</v>
+        <v>36395.5574</v>
       </c>
       <c r="I6" s="1">
-        <v>442.6612</v>
+        <v>441.7757</v>
       </c>
       <c r="J6" s="1">
-        <v>36984.3378</v>
+        <v>36837.3331</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.8485</v>
+        <v>11.8722</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10442.6612</v>
+        <v>-10441.7757</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0249</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>11.2543</v>
       </c>
       <c r="C7" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D7" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E7" s="1">
-        <v>4340.7154</v>
+        <v>4331.9586</v>
       </c>
       <c r="F7" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>48851.7136</v>
+        <v>48655.6929</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>48851.7136</v>
+        <v>48655.6929</v>
       </c>
       <c r="K7" s="1">
-        <v>50442.6612</v>
+        <v>50441.7757</v>
       </c>
       <c r="L7" s="1">
-        <v>11.6208</v>
+        <v>11.6441</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0397</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>10.5675</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E8" s="1">
-        <v>5229.2647</v>
+        <v>5218.7272</v>
       </c>
       <c r="F8" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>55260.2546</v>
+        <v>55038.784</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55260.2546</v>
+        <v>55038.784</v>
       </c>
       <c r="K8" s="1">
-        <v>60442.6612</v>
+        <v>60441.7757</v>
       </c>
       <c r="L8" s="1">
-        <v>11.5585</v>
+        <v>11.5817</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1171.9932</v>
+        <v>1169.6288</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8828.006799999999</v>
+        <v>-8830.3712</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.061</v>
+        <v>-0.0617</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E9" s="1">
-        <v>6175.5533</v>
+        <v>6163.1301</v>
       </c>
       <c r="F9" s="1">
-        <v>1120.8983</v>
+        <v>1118.4168</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>61551.7402</v>
+        <v>61305.2719</v>
       </c>
       <c r="I9" s="1">
-        <v>1171.9932</v>
+        <v>1169.6288</v>
       </c>
       <c r="J9" s="1">
-        <v>62723.7334</v>
+        <v>62474.9007</v>
       </c>
       <c r="K9" s="1">
-        <v>70442.6612</v>
+        <v>70441.7757</v>
       </c>
       <c r="L9" s="1">
-        <v>11.4067</v>
+        <v>11.4295</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11171.9932</v>
+        <v>-11169.6288</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0389</v>
+        <v>-0.0394</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.0064</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E10" s="1">
-        <v>7296.4516</v>
+        <v>7281.547</v>
       </c>
       <c r="F10" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>73011.2136</v>
+        <v>72716.44070000001</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>73011.2136</v>
+        <v>72716.44070000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81614.65429999999</v>
+        <v>81611.40459999999</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1855</v>
+        <v>11.208</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.004</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>10.0129</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E11" s="1">
-        <v>8295.812</v>
+        <v>8278.904</v>
       </c>
       <c r="F11" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>83065.1363</v>
+        <v>82730.2595</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>83065.1363</v>
+        <v>82730.2595</v>
       </c>
       <c r="K11" s="1">
-        <v>91614.65429999999</v>
+        <v>91611.40459999999</v>
       </c>
       <c r="L11" s="1">
-        <v>11.0435</v>
+        <v>11.0656</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1970.0419</v>
+        <v>1966.0177</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8029.9581</v>
+        <v>-8033.9823</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.4583</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E12" s="1">
-        <v>9294.5237</v>
+        <v>9275.614799999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1144.5495</v>
+        <v>1141.8719</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>97204.9172</v>
+        <v>96813.30220000001</v>
       </c>
       <c r="I12" s="1">
-        <v>1970.0419</v>
+        <v>1966.0177</v>
       </c>
       <c r="J12" s="1">
-        <v>99174.95909999999</v>
+        <v>98779.3199</v>
       </c>
       <c r="K12" s="1">
-        <v>101614.6543</v>
+        <v>101611.4046</v>
       </c>
       <c r="L12" s="1">
-        <v>10.9327</v>
+        <v>10.9547</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11970.0419</v>
+        <v>-11966.0177</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.06569999999999999</v>
+        <v>0.06519999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.3341</v>
       </c>
       <c r="C13" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D13" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E13" s="1">
-        <v>10439.0732</v>
+        <v>10417.4867</v>
       </c>
       <c r="F13" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>107878.4262</v>
+        <v>107439.7071</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>107878.4262</v>
+        <v>107439.7071</v>
       </c>
       <c r="K13" s="1">
-        <v>113584.6963</v>
+        <v>113577.4222</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8807</v>
+        <v>10.9026</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0119</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>11406.7433</v>
+        <v>11383.2224</v>
       </c>
       <c r="F14" s="1">
-        <v>-11406.7433</v>
+        <v>-11383.2224</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112751.0951</v>
+        <v>112293.2121</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>112751.0951</v>
+        <v>112293.2121</v>
       </c>
       <c r="K14" s="1">
-        <v>123584.6963</v>
+        <v>123577.4222</v>
       </c>
       <c r="L14" s="1">
-        <v>10.8344</v>
+        <v>10.8561</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4697.5829</v>
+        <v>4687.869</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117448.678</v>
+        <v>116981.0811</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0435</v>
+        <v>-0.0438</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>12.2345</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.1636</v>
       </c>
       <c r="C3" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D3" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E3" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="F3" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9942.0491</v>
+        <v>9902.3575</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9942.0491</v>
+        <v>9902.3575</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0058</v>
+        <v>-0.0098</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>11.8145</v>
       </c>
       <c r="C4" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D4" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E4" s="1">
-        <v>1639.4858</v>
+        <v>1636.2064</v>
       </c>
       <c r="F4" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19369.7046</v>
+        <v>19292.3458</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19369.7046</v>
+        <v>19292.3458</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.1989</v>
+        <v>12.2234</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0287</v>
+        <v>-0.0307</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>11.2352</v>
       </c>
       <c r="C5" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D5" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E5" s="1">
-        <v>2485.9033</v>
+        <v>2480.9294</v>
       </c>
       <c r="F5" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>27929.6209</v>
+        <v>27817.917</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27929.6209</v>
+        <v>27817.917</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.068</v>
+        <v>12.0922</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>442.6612</v>
+        <v>441.7757</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9557.3388</v>
+        <v>-9558.2243</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.049</v>
+        <v>-0.0503</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.8241</v>
       </c>
       <c r="C6" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D6" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E6" s="1">
-        <v>3375.9552</v>
+        <v>3369.2103</v>
       </c>
       <c r="F6" s="1">
-        <v>964.7602000000001</v>
+        <v>962.7483</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>36541.6767</v>
+        <v>36395.5574</v>
       </c>
       <c r="I6" s="1">
-        <v>442.6612</v>
+        <v>441.7757</v>
       </c>
       <c r="J6" s="1">
-        <v>36984.3378</v>
+        <v>36837.3331</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.8485</v>
+        <v>11.8722</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10442.6612</v>
+        <v>-10441.7757</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0249</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>11.2543</v>
       </c>
       <c r="C7" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D7" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E7" s="1">
-        <v>4340.7154</v>
+        <v>4331.9586</v>
       </c>
       <c r="F7" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>48851.7136</v>
+        <v>48655.6929</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>48851.7136</v>
+        <v>48655.6929</v>
       </c>
       <c r="K7" s="1">
-        <v>50442.6612</v>
+        <v>50441.7757</v>
       </c>
       <c r="L7" s="1">
-        <v>11.6208</v>
+        <v>11.6441</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0397</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>10.5675</v>
       </c>
       <c r="C8" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D8" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E8" s="1">
-        <v>5229.2647</v>
+        <v>5218.7272</v>
       </c>
       <c r="F8" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>55260.2546</v>
+        <v>55038.784</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55260.2546</v>
+        <v>55038.784</v>
       </c>
       <c r="K8" s="1">
-        <v>60442.6612</v>
+        <v>60441.7757</v>
       </c>
       <c r="L8" s="1">
-        <v>11.5585</v>
+        <v>11.5817</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1171.9932</v>
+        <v>1169.6288</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8828.006799999999</v>
+        <v>-8830.3712</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.061</v>
+        <v>-0.0617</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E9" s="1">
-        <v>6175.5533</v>
+        <v>6163.1301</v>
       </c>
       <c r="F9" s="1">
-        <v>1120.8983</v>
+        <v>1118.4168</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>61551.7402</v>
+        <v>61305.2719</v>
       </c>
       <c r="I9" s="1">
-        <v>1171.9932</v>
+        <v>1169.6288</v>
       </c>
       <c r="J9" s="1">
-        <v>62723.7334</v>
+        <v>62474.9007</v>
       </c>
       <c r="K9" s="1">
-        <v>70442.6612</v>
+        <v>70441.7757</v>
       </c>
       <c r="L9" s="1">
-        <v>11.4067</v>
+        <v>11.4295</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11171.9932</v>
+        <v>-11169.6288</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0389</v>
+        <v>-0.0394</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.0064</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E10" s="1">
-        <v>7296.4516</v>
+        <v>7281.547</v>
       </c>
       <c r="F10" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>73011.2136</v>
+        <v>72716.44070000001</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>73011.2136</v>
+        <v>72716.44070000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81614.65429999999</v>
+        <v>81611.40459999999</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1855</v>
+        <v>11.208</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.004</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>10.0129</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E11" s="1">
-        <v>8295.812</v>
+        <v>8278.904</v>
       </c>
       <c r="F11" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>83065.1363</v>
+        <v>82730.2595</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>83065.1363</v>
+        <v>82730.2595</v>
       </c>
       <c r="K11" s="1">
-        <v>91614.65429999999</v>
+        <v>91611.40459999999</v>
       </c>
       <c r="L11" s="1">
-        <v>11.0435</v>
+        <v>11.0656</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1970.0419</v>
+        <v>1966.0177</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8029.9581</v>
+        <v>-8033.9823</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.4583</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E12" s="1">
-        <v>9294.5237</v>
+        <v>9275.614799999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1144.5495</v>
+        <v>1141.8719</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>97204.9172</v>
+        <v>96813.30220000001</v>
       </c>
       <c r="I12" s="1">
-        <v>1970.0419</v>
+        <v>1966.0177</v>
       </c>
       <c r="J12" s="1">
-        <v>99174.95909999999</v>
+        <v>98779.3199</v>
       </c>
       <c r="K12" s="1">
-        <v>101614.6543</v>
+        <v>101611.4046</v>
       </c>
       <c r="L12" s="1">
-        <v>10.9327</v>
+        <v>10.9547</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11970.0419</v>
+        <v>-11966.0177</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.06569999999999999</v>
+        <v>0.06519999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.3341</v>
       </c>
       <c r="C13" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D13" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E13" s="1">
-        <v>10439.0732</v>
+        <v>10417.4867</v>
       </c>
       <c r="F13" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>107878.4262</v>
+        <v>107439.7071</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>107878.4262</v>
+        <v>107439.7071</v>
       </c>
       <c r="K13" s="1">
-        <v>113584.6963</v>
+        <v>113577.4222</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8807</v>
+        <v>10.9026</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0119</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>11406.7433</v>
+        <v>11383.2224</v>
       </c>
       <c r="F14" s="1">
-        <v>-11406.7433</v>
+        <v>-11383.2224</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112751.0951</v>
+        <v>112293.2121</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>112751.0951</v>
+        <v>112293.2121</v>
       </c>
       <c r="K14" s="1">
-        <v>123584.6963</v>
+        <v>123577.4222</v>
       </c>
       <c r="L14" s="1">
-        <v>10.8344</v>
+        <v>10.8561</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4697.5829</v>
+        <v>4687.869</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117448.678</v>
+        <v>116981.0811</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0435</v>
+        <v>-0.0438</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.8339</v>
+        <v>10.8557</v>
       </c>
       <c r="D3" s="1">
-        <v>10.8344</v>
+        <v>10.8561</v>
       </c>
       <c r="E3" s="1">
-        <v>10.8344</v>
+        <v>10.8561</v>
       </c>
       <c r="F3" s="1">
-        <v>10.8344</v>
+        <v>10.8561</v>
       </c>
       <c r="G3" s="1">
-        <v>10.8344</v>
+        <v>10.8561</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.2045</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1542</v>
+        <v>-0.1667</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1537</v>
+        <v>-0.1663</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1537</v>
+        <v>-0.1663</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1537</v>
+        <v>-0.1663</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1537</v>
+        <v>-0.1663</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1169</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1221</v>
+        <v>0.1224</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1228</v>
+        <v>0.123</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1228</v>
+        <v>0.123</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1228</v>
+        <v>0.123</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1228</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-1.9226</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.4285</v>
+        <v>-1.5288</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.4169</v>
+        <v>-1.5172</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.4169</v>
+        <v>-1.5172</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.4169</v>
+        <v>-1.5172</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.4169</v>
+        <v>-1.5172</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0408</v>
+        <v>-0.048</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0392</v>
+        <v>-0.0463</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0392</v>
+        <v>-0.0463</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0392</v>
+        <v>-0.0463</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0392</v>
+        <v>-0.0463</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>8185.5029</v>
+        <v>8168.9065</v>
       </c>
       <c r="D8" s="1">
-        <v>8282.279200000001</v>
+        <v>8265.2912</v>
       </c>
       <c r="E8" s="1">
-        <v>8282.279200000001</v>
+        <v>8265.2912</v>
       </c>
       <c r="F8" s="1">
-        <v>8282.279200000001</v>
+        <v>8265.2912</v>
       </c>
       <c r="G8" s="1">
-        <v>8282.279200000001</v>
+        <v>8265.2912</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P75_KFSDIV.xlsx
+++ b/output/1Y_P75_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2345</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.1636</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.8145</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.2352</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8241</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.2543</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.5675</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.967000000000001</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0064</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.0129</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4583</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.3341</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.884600000000001</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2345</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.1636</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.8145</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.2352</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8241</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.2543</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.5675</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.967000000000001</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0064</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.0129</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4583</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.3341</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.884600000000001</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2345</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.1636</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.8145</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.2352</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8241</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.2543</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.5675</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.967000000000001</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0064</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.0129</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4583</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.3341</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.884600000000001</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2345</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.1636</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.8145</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.2352</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8241</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.2543</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.5675</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.967000000000001</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0064</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.0129</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4583</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.3341</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.884600000000001</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2345</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.1636</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.8145</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.2352</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8241</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.2543</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.5675</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.967000000000001</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0064</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.0129</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4583</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.3341</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.884600000000001</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>9487.2426</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.909</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9089</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9089</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9089</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9089</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
